--- a/PersData_Excel.xlsx
+++ b/PersData_Excel.xlsx
@@ -5,16 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Dropbox\Education &amp; Work\Applied Projects &amp; Work\R for HR Book\R for HR Book [NEW]\R for HR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B6499EF0-EE93-4319-9E3B-E00D6CE65642}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28D4103-4AC6-4B86-B8E7-F149C0DF3879}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1815" yWindow="1815" windowWidth="21600" windowHeight="11385" xr2:uid="{3832637C-F48E-44CB-B535-07E0A8AB9076}"/>
+    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{3832637C-F48E-44CB-B535-07E0A8AB9076}"/>
   </bookViews>
   <sheets>
-    <sheet name="Unit1" sheetId="1" r:id="rId1"/>
-    <sheet name="Unit2" sheetId="2" r:id="rId2"/>
+    <sheet name="Year1" sheetId="1" r:id="rId1"/>
+    <sheet name="Year2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -470,7 +470,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85EE7777-D545-400C-AA8D-96D624856BB5}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
@@ -655,8 +655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98B01504-EA73-4899-A25C-E3B660A50C4C}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
